--- a/HybridRediff/Files/PortfolioSuite.xlsx
+++ b/HybridRediff/Files/PortfolioSuite.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +277,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -323,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,9 +363,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,6 +398,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,20 +574,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -585,44 +595,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -632,7 +643,7 @@
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -652,7 +663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -666,7 +677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -680,7 +691,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -692,7 +703,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -704,7 +715,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
@@ -718,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
@@ -732,7 +743,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -746,7 +757,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
@@ -760,7 +771,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
@@ -774,7 +785,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
@@ -790,7 +801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
@@ -804,7 +815,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -816,7 +827,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -830,7 +841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -844,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
@@ -858,7 +869,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
@@ -870,7 +881,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
@@ -886,7 +897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -898,7 +909,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -912,7 +923,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
@@ -926,7 +937,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
@@ -949,14 +960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -965,12 +976,12 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -987,7 +998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1004,12 +1015,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1042,12 +1053,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1058,7 +1069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1069,7 +1080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
